--- a/HNS.xlsx
+++ b/HNS.xlsx
@@ -43,7 +43,7 @@
     <t>备注</t>
   </si>
   <si>
-    <t>1.基本收发报文功能</t>
+    <t>基本收发报文功能</t>
   </si>
   <si>
     <t>GE网口与对端ping操作</t>
@@ -67,7 +67,7 @@
     <t>HNS.1.2.md</t>
   </si>
   <si>
-    <t>2.网口的打开和关闭</t>
+    <t>网口的打开和关闭</t>
   </si>
   <si>
     <t>down/up网口</t>
@@ -100,7 +100,7 @@
     <t>HNS.2.5.md</t>
   </si>
   <si>
-    <t>3.网口基本配置查询</t>
+    <t>网口基本配置查询</t>
   </si>
   <si>
     <t>网口模式基本配置查询</t>
@@ -121,7 +121,7 @@
     <t>HNS.3.3.md</t>
   </si>
   <si>
-    <t>4.设置网口基本配置</t>
+    <t>设置网口基本配置</t>
   </si>
   <si>
     <t>GE电口速率和双工模式设置</t>
@@ -166,7 +166,7 @@
     <t>HNS.4.7.md</t>
   </si>
   <si>
-    <t>5.驱动版本信息查询</t>
+    <t>驱动版本信息查询</t>
   </si>
   <si>
     <t>网口驱动版本信息查询</t>
@@ -181,7 +181,7 @@
     <t>HNS.5.2.md</t>
   </si>
   <si>
-    <t>6.网口Link灯</t>
+    <t>网口Link灯</t>
   </si>
   <si>
     <t>GE光口link灯工作状态</t>
@@ -226,7 +226,7 @@
     <t>HNS.6.7.md</t>
   </si>
   <si>
-    <t>7.网口Active灯</t>
+    <t>网口Active灯</t>
   </si>
   <si>
     <t>GE光口收发数据灯（Active灯）工作状态</t>
@@ -259,7 +259,7 @@
     <t>HNS.7.5.md</t>
   </si>
   <si>
-    <t>8.网口速率灯</t>
+    <t>网口速率灯</t>
   </si>
   <si>
     <t>GE光口速率灯工作状态</t>
@@ -292,7 +292,7 @@
     <t>HNS.8.5.md</t>
   </si>
   <si>
-    <t>9.网口故障灯</t>
+    <t>网口故障灯</t>
   </si>
   <si>
     <t>GE光口故障灯工作状态</t>
@@ -331,7 +331,7 @@
     <t>HNS.9.6.md</t>
   </si>
   <si>
-    <t>10.网口数据统计查询</t>
+    <t>网口数据统计查询</t>
   </si>
   <si>
     <t>GE网口标准统计数据获取功能测试</t>
@@ -400,7 +400,7 @@
     <t>HNS.10.11.md</t>
   </si>
   <si>
-    <t>11.link状态查询</t>
+    <t>link状态查询</t>
   </si>
   <si>
     <t>GE光口连接查询link状态</t>
@@ -433,7 +433,7 @@
     <t>HNS.11.5.md</t>
   </si>
   <si>
-    <t>12.网口重新自协商</t>
+    <t>网口重新自协商</t>
   </si>
   <si>
     <t>GE电口重新自协商</t>
@@ -472,7 +472,7 @@
     <t>HNS.12.6.md</t>
   </si>
   <si>
-    <t>13.收发队列查询</t>
+    <t>收发队列查询</t>
   </si>
   <si>
     <t>业务网口收发队列BD个数查询</t>
@@ -499,7 +499,7 @@
     <t>HNS.13.4.md</t>
   </si>
   <si>
-    <t>14.MAC地址设置</t>
+    <t>MAC地址设置</t>
   </si>
   <si>
     <t>网口Mac地址设置功能测试</t>
@@ -532,7 +532,7 @@
     <t>HNS.14.5.md</t>
   </si>
   <si>
-    <t>15.MTU</t>
+    <t>MTU</t>
   </si>
   <si>
     <t>MTU查询</t>
@@ -571,7 +571,7 @@
     <t>HNS.15.6.md</t>
   </si>
   <si>
-    <t>16.流控查询</t>
+    <t>流控查询</t>
   </si>
   <si>
     <t>GE电口流控使能查询</t>
@@ -610,7 +610,7 @@
     <t>HNS.16.6.md</t>
   </si>
   <si>
-    <t>17.流控设置</t>
+    <t>流控设置</t>
   </si>
   <si>
     <t>GE电口正常关闭打开TX流控</t>
@@ -721,7 +721,7 @@
     <t>HNS.17.18.md</t>
   </si>
   <si>
-    <t>18.网口中断聚合功能</t>
+    <t>网口中断聚合功能</t>
   </si>
   <si>
     <t>业务网口超时时间设置后功能验证</t>
@@ -760,7 +760,7 @@
     <t>HNS.18.6.md</t>
   </si>
   <si>
-    <t>19.网口性能：TSO/RSS/GSO/GRO</t>
+    <t>网口性能：TSO/RSS/GSO/GRO</t>
   </si>
   <si>
     <t>业务网口pause帧流控配置和查询测试</t>
@@ -840,13 +840,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;／&quot;d&quot;／&quot;yyyy"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="34">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -887,43 +887,58 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color indexed="12"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color indexed="20"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="10"/>
-      <color indexed="12"/>
-      <name val="Microsoft YaHei"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="12"/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -936,32 +951,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -974,11 +966,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -998,8 +997,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans CJK SC Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1014,17 +1057,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1036,40 +1072,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Noto Sans CJK SC Regular"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="39">
@@ -1117,13 +1132,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1141,7 +1168,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1153,13 +1186,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1171,133 +1312,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1600,33 +1615,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1638,6 +1626,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1657,17 +1669,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1683,17 +1684,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1702,155 +1717,155 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1861,10 +1876,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1874,119 +1889,110 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="7" borderId="6" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="12" fillId="7" borderId="6" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="20" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="7" borderId="19" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="12" fillId="7" borderId="19" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2327,22 +2333,22 @@
   <sheetPr/>
   <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomLeft" activeCell="E128" sqref="E128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.4444444444444" defaultRowHeight="27" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.4444444444444" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18.8296296296296" style="3" customWidth="1"/>
-    <col min="2" max="2" width="32.8666666666667" style="3"/>
+    <col min="2" max="2" width="32.8666666666667" style="4"/>
     <col min="3" max="3" width="7.83703703703704" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.6" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.80740740740741" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.80740740740741" style="3" customWidth="1"/>
     <col min="6" max="6" width="13.9851851851852" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.0222222222222" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.80740740740741" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.80740740740741" style="3" customWidth="1"/>
     <col min="9" max="9" width="47.4444444444444" style="2" customWidth="1"/>
     <col min="10" max="252" width="11.5703703703704" style="2"/>
     <col min="253" max="253" width="7" style="5"/>
@@ -2350,7 +2356,7 @@
     <col min="16382" max="16384" width="12.4444444444444" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="36" customHeight="1" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="30" customHeight="1" spans="1:9">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2375,11 +2381,11 @@
       <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
@@ -2399,12 +2405,12 @@
         <v>14</v>
       </c>
       <c r="G2" s="23"/>
-      <c r="H2" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="28"/>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H2" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="26"/>
+    </row>
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A3" s="14"/>
       <c r="B3" s="15" t="s">
         <v>15</v>
@@ -2418,16 +2424,16 @@
       <c r="E3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="23"/>
-      <c r="H3" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="29"/>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H3" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="27"/>
+    </row>
+    <row r="4" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A4" s="17" t="s">
         <v>17</v>
       </c>
@@ -2443,16 +2449,16 @@
       <c r="E4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="23"/>
-      <c r="H4" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="29"/>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H4" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="27"/>
+    </row>
+    <row r="5" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A5" s="17"/>
       <c r="B5" s="15" t="s">
         <v>20</v>
@@ -2466,16 +2472,16 @@
       <c r="E5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="23"/>
-      <c r="H5" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="29"/>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H5" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="27"/>
+    </row>
+    <row r="6" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A6" s="17"/>
       <c r="B6" s="15" t="s">
         <v>22</v>
@@ -2489,16 +2495,16 @@
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="23"/>
-      <c r="H6" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="29"/>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H6" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="27"/>
+    </row>
+    <row r="7" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A7" s="17"/>
       <c r="B7" s="15" t="s">
         <v>24</v>
@@ -2512,16 +2518,16 @@
       <c r="E7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="23"/>
-      <c r="H7" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="29"/>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H7" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="27"/>
+    </row>
+    <row r="8" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A8" s="17"/>
       <c r="B8" s="15" t="s">
         <v>26</v>
@@ -2535,16 +2541,16 @@
       <c r="E8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="23"/>
-      <c r="H8" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="29"/>
-    </row>
-    <row r="9" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H8" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="27"/>
+    </row>
+    <row r="9" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A9" s="14" t="s">
         <v>28</v>
       </c>
@@ -2560,16 +2566,16 @@
       <c r="E9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="23"/>
-      <c r="H9" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="29"/>
-    </row>
-    <row r="10" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H9" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="27"/>
+    </row>
+    <row r="10" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A10" s="14"/>
       <c r="B10" s="15" t="s">
         <v>31</v>
@@ -2583,16 +2589,16 @@
       <c r="E10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="23"/>
-      <c r="H10" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="29"/>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H10" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="27"/>
+    </row>
+    <row r="11" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A11" s="14"/>
       <c r="B11" s="15" t="s">
         <v>33</v>
@@ -2606,16 +2612,16 @@
       <c r="E11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="23"/>
-      <c r="H11" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="29"/>
-    </row>
-    <row r="12" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H11" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="27"/>
+    </row>
+    <row r="12" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A12" s="14" t="s">
         <v>35</v>
       </c>
@@ -2631,16 +2637,16 @@
       <c r="E12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G12" s="23"/>
-      <c r="H12" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="29"/>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H12" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="27"/>
+    </row>
+    <row r="13" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A13" s="14"/>
       <c r="B13" s="15" t="s">
         <v>38</v>
@@ -2654,16 +2660,16 @@
       <c r="E13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="23"/>
-      <c r="H13" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="29"/>
-    </row>
-    <row r="14" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H13" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="27"/>
+    </row>
+    <row r="14" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A14" s="14"/>
       <c r="B14" s="15" t="s">
         <v>40</v>
@@ -2677,16 +2683,16 @@
       <c r="E14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G14" s="23"/>
-      <c r="H14" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="29"/>
-    </row>
-    <row r="15" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H14" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="27"/>
+    </row>
+    <row r="15" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
         <v>42</v>
@@ -2700,16 +2706,16 @@
       <c r="E15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="23"/>
-      <c r="H15" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="29"/>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H15" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="27"/>
+    </row>
+    <row r="16" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A16" s="14"/>
       <c r="B16" s="15" t="s">
         <v>44</v>
@@ -2723,16 +2729,16 @@
       <c r="E16" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="F16" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G16" s="23"/>
-      <c r="H16" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="29"/>
-    </row>
-    <row r="17" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H16" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="27"/>
+    </row>
+    <row r="17" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A17" s="14"/>
       <c r="B17" s="15" t="s">
         <v>46</v>
@@ -2746,16 +2752,16 @@
       <c r="E17" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F17" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="23"/>
-      <c r="H17" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="29"/>
-    </row>
-    <row r="18" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H17" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="27"/>
+    </row>
+    <row r="18" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A18" s="14"/>
       <c r="B18" s="15" t="s">
         <v>48</v>
@@ -2769,16 +2775,16 @@
       <c r="E18" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F18" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G18" s="23"/>
-      <c r="H18" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="29"/>
-    </row>
-    <row r="19" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H18" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="27"/>
+    </row>
+    <row r="19" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A19" s="17" t="s">
         <v>50</v>
       </c>
@@ -2794,16 +2800,16 @@
       <c r="E19" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G19" s="23"/>
-      <c r="H19" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="29"/>
-    </row>
-    <row r="20" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H19" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="27"/>
+    </row>
+    <row r="20" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A20" s="17"/>
       <c r="B20" s="15" t="s">
         <v>53</v>
@@ -2817,16 +2823,16 @@
       <c r="E20" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="F20" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G20" s="23"/>
-      <c r="H20" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" s="29"/>
-    </row>
-    <row r="21" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H20" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="27"/>
+    </row>
+    <row r="21" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A21" s="14" t="s">
         <v>55</v>
       </c>
@@ -2842,16 +2848,16 @@
       <c r="E21" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="F21" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G21" s="23"/>
-      <c r="H21" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" s="29"/>
-    </row>
-    <row r="22" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H21" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="27"/>
+    </row>
+    <row r="22" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A22" s="14"/>
       <c r="B22" s="15" t="s">
         <v>58</v>
@@ -2865,16 +2871,16 @@
       <c r="E22" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="F22" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G22" s="23"/>
-      <c r="H22" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="29"/>
-    </row>
-    <row r="23" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H22" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="27"/>
+    </row>
+    <row r="23" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A23" s="14"/>
       <c r="B23" s="15" t="s">
         <v>60</v>
@@ -2888,16 +2894,16 @@
       <c r="E23" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="25" t="s">
+      <c r="F23" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G23" s="23"/>
-      <c r="H23" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" s="29"/>
-    </row>
-    <row r="24" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H23" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="27"/>
+    </row>
+    <row r="24" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A24" s="14"/>
       <c r="B24" s="15" t="s">
         <v>62</v>
@@ -2911,16 +2917,16 @@
       <c r="E24" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G24" s="23"/>
-      <c r="H24" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" s="29"/>
-    </row>
-    <row r="25" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H24" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="27"/>
+    </row>
+    <row r="25" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A25" s="14"/>
       <c r="B25" s="15" t="s">
         <v>64</v>
@@ -2934,16 +2940,16 @@
       <c r="E25" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="25" t="s">
+      <c r="F25" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G25" s="23"/>
-      <c r="H25" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I25" s="29"/>
-    </row>
-    <row r="26" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H25" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="27"/>
+    </row>
+    <row r="26" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A26" s="14"/>
       <c r="B26" s="15" t="s">
         <v>66</v>
@@ -2957,16 +2963,16 @@
       <c r="E26" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="25" t="s">
+      <c r="F26" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G26" s="23"/>
-      <c r="H26" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26" s="29"/>
-    </row>
-    <row r="27" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H26" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="27"/>
+    </row>
+    <row r="27" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A27" s="14"/>
       <c r="B27" s="15" t="s">
         <v>68</v>
@@ -2980,16 +2986,16 @@
       <c r="E27" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="25" t="s">
+      <c r="F27" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G27" s="23"/>
-      <c r="H27" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I27" s="29"/>
-    </row>
-    <row r="28" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H27" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="27"/>
+    </row>
+    <row r="28" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A28" s="17" t="s">
         <v>70</v>
       </c>
@@ -3005,16 +3011,16 @@
       <c r="E28" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="25" t="s">
+      <c r="F28" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G28" s="23"/>
-      <c r="H28" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I28" s="29"/>
-    </row>
-    <row r="29" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H28" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="27"/>
+    </row>
+    <row r="29" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A29" s="17"/>
       <c r="B29" s="15" t="s">
         <v>73</v>
@@ -3028,16 +3034,16 @@
       <c r="E29" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="25" t="s">
+      <c r="F29" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G29" s="23"/>
-      <c r="H29" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I29" s="29"/>
-    </row>
-    <row r="30" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H29" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="27"/>
+    </row>
+    <row r="30" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A30" s="17"/>
       <c r="B30" s="15" t="s">
         <v>75</v>
@@ -3051,16 +3057,16 @@
       <c r="E30" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="25" t="s">
+      <c r="F30" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G30" s="23"/>
-      <c r="H30" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I30" s="29"/>
-    </row>
-    <row r="31" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H30" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="27"/>
+    </row>
+    <row r="31" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A31" s="17"/>
       <c r="B31" s="15" t="s">
         <v>77</v>
@@ -3074,16 +3080,16 @@
       <c r="E31" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="25" t="s">
+      <c r="F31" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G31" s="23"/>
-      <c r="H31" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I31" s="29"/>
-    </row>
-    <row r="32" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H31" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" s="27"/>
+    </row>
+    <row r="32" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A32" s="17"/>
       <c r="B32" s="15" t="s">
         <v>79</v>
@@ -3097,16 +3103,16 @@
       <c r="E32" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="25" t="s">
+      <c r="F32" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G32" s="23"/>
-      <c r="H32" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I32" s="29"/>
-    </row>
-    <row r="33" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H32" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" s="27"/>
+    </row>
+    <row r="33" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A33" s="17" t="s">
         <v>81</v>
       </c>
@@ -3122,16 +3128,16 @@
       <c r="E33" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="25" t="s">
+      <c r="F33" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G33" s="23"/>
-      <c r="H33" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I33" s="29"/>
-    </row>
-    <row r="34" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H33" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" s="27"/>
+    </row>
+    <row r="34" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A34" s="17"/>
       <c r="B34" s="15" t="s">
         <v>84</v>
@@ -3145,16 +3151,16 @@
       <c r="E34" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="25" t="s">
+      <c r="F34" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G34" s="23"/>
-      <c r="H34" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I34" s="29"/>
-    </row>
-    <row r="35" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H34" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" s="27"/>
+    </row>
+    <row r="35" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A35" s="17"/>
       <c r="B35" s="15" t="s">
         <v>86</v>
@@ -3168,16 +3174,16 @@
       <c r="E35" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="25" t="s">
+      <c r="F35" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G35" s="23"/>
-      <c r="H35" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I35" s="29"/>
-    </row>
-    <row r="36" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H35" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" s="27"/>
+    </row>
+    <row r="36" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A36" s="17"/>
       <c r="B36" s="15" t="s">
         <v>88</v>
@@ -3191,16 +3197,16 @@
       <c r="E36" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="25" t="s">
+      <c r="F36" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G36" s="23"/>
-      <c r="H36" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I36" s="29"/>
-    </row>
-    <row r="37" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H36" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" s="27"/>
+    </row>
+    <row r="37" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A37" s="17"/>
       <c r="B37" s="15" t="s">
         <v>90</v>
@@ -3214,16 +3220,16 @@
       <c r="E37" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F37" s="25" t="s">
+      <c r="F37" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G37" s="23"/>
-      <c r="H37" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I37" s="29"/>
-    </row>
-    <row r="38" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H37" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" s="27"/>
+    </row>
+    <row r="38" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A38" s="17" t="s">
         <v>92</v>
       </c>
@@ -3239,16 +3245,16 @@
       <c r="E38" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F38" s="25" t="s">
+      <c r="F38" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G38" s="23"/>
-      <c r="H38" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I38" s="29"/>
-    </row>
-    <row r="39" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H38" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" s="27"/>
+    </row>
+    <row r="39" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A39" s="17"/>
       <c r="B39" s="15" t="s">
         <v>95</v>
@@ -3262,16 +3268,16 @@
       <c r="E39" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F39" s="25" t="s">
+      <c r="F39" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G39" s="23"/>
-      <c r="H39" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I39" s="29"/>
-    </row>
-    <row r="40" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H39" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" s="27"/>
+    </row>
+    <row r="40" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A40" s="17"/>
       <c r="B40" s="15" t="s">
         <v>97</v>
@@ -3285,16 +3291,16 @@
       <c r="E40" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="25" t="s">
+      <c r="F40" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G40" s="23"/>
-      <c r="H40" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I40" s="29"/>
-    </row>
-    <row r="41" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H40" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" s="27"/>
+    </row>
+    <row r="41" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A41" s="17"/>
       <c r="B41" s="15" t="s">
         <v>99</v>
@@ -3308,16 +3314,16 @@
       <c r="E41" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F41" s="25" t="s">
+      <c r="F41" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G41" s="23"/>
-      <c r="H41" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I41" s="29"/>
-    </row>
-    <row r="42" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H41" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41" s="27"/>
+    </row>
+    <row r="42" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A42" s="17"/>
       <c r="B42" s="15" t="s">
         <v>101</v>
@@ -3331,16 +3337,16 @@
       <c r="E42" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F42" s="25" t="s">
+      <c r="F42" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G42" s="23"/>
-      <c r="H42" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I42" s="29"/>
-    </row>
-    <row r="43" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H42" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" s="27"/>
+    </row>
+    <row r="43" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A43" s="17"/>
       <c r="B43" s="15" t="s">
         <v>103</v>
@@ -3354,16 +3360,16 @@
       <c r="E43" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="25" t="s">
+      <c r="F43" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G43" s="23"/>
-      <c r="H43" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I43" s="29"/>
-    </row>
-    <row r="44" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H43" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I43" s="27"/>
+    </row>
+    <row r="44" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A44" s="17" t="s">
         <v>105</v>
       </c>
@@ -3379,16 +3385,16 @@
       <c r="E44" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F44" s="25" t="s">
+      <c r="F44" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G44" s="23"/>
-      <c r="H44" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I44" s="29"/>
-    </row>
-    <row r="45" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H44" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44" s="27"/>
+    </row>
+    <row r="45" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A45" s="17"/>
       <c r="B45" s="15" t="s">
         <v>108</v>
@@ -3402,16 +3408,16 @@
       <c r="E45" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F45" s="25" t="s">
+      <c r="F45" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G45" s="23"/>
-      <c r="H45" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I45" s="29"/>
-    </row>
-    <row r="46" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H45" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I45" s="27"/>
+    </row>
+    <row r="46" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A46" s="17"/>
       <c r="B46" s="15" t="s">
         <v>110</v>
@@ -3425,16 +3431,16 @@
       <c r="E46" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F46" s="25" t="s">
+      <c r="F46" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G46" s="23"/>
-      <c r="H46" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I46" s="29"/>
-    </row>
-    <row r="47" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H46" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I46" s="27"/>
+    </row>
+    <row r="47" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A47" s="17"/>
       <c r="B47" s="15" t="s">
         <v>112</v>
@@ -3448,16 +3454,16 @@
       <c r="E47" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F47" s="25" t="s">
+      <c r="F47" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G47" s="23"/>
-      <c r="H47" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I47" s="29"/>
-    </row>
-    <row r="48" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H47" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I47" s="27"/>
+    </row>
+    <row r="48" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A48" s="17"/>
       <c r="B48" s="15" t="s">
         <v>114</v>
@@ -3471,16 +3477,16 @@
       <c r="E48" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F48" s="25" t="s">
+      <c r="F48" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G48" s="23"/>
-      <c r="H48" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I48" s="29"/>
-    </row>
-    <row r="49" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H48" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I48" s="27"/>
+    </row>
+    <row r="49" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A49" s="17"/>
       <c r="B49" s="15" t="s">
         <v>116</v>
@@ -3494,16 +3500,16 @@
       <c r="E49" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F49" s="25" t="s">
+      <c r="F49" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G49" s="23"/>
-      <c r="H49" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I49" s="29"/>
-    </row>
-    <row r="50" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H49" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I49" s="27"/>
+    </row>
+    <row r="50" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A50" s="17"/>
       <c r="B50" s="15" t="s">
         <v>118</v>
@@ -3517,16 +3523,16 @@
       <c r="E50" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F50" s="25" t="s">
+      <c r="F50" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G50" s="23"/>
-      <c r="H50" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I50" s="29"/>
-    </row>
-    <row r="51" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H50" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I50" s="27"/>
+    </row>
+    <row r="51" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A51" s="17"/>
       <c r="B51" s="15" t="s">
         <v>120</v>
@@ -3540,16 +3546,16 @@
       <c r="E51" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F51" s="25" t="s">
+      <c r="F51" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G51" s="23"/>
-      <c r="H51" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I51" s="29"/>
-    </row>
-    <row r="52" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H51" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I51" s="27"/>
+    </row>
+    <row r="52" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A52" s="17"/>
       <c r="B52" s="15" t="s">
         <v>122</v>
@@ -3563,16 +3569,16 @@
       <c r="E52" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F52" s="25" t="s">
+      <c r="F52" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G52" s="23"/>
-      <c r="H52" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I52" s="29"/>
-    </row>
-    <row r="53" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H52" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I52" s="27"/>
+    </row>
+    <row r="53" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A53" s="17"/>
       <c r="B53" s="15" t="s">
         <v>124</v>
@@ -3586,16 +3592,16 @@
       <c r="E53" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F53" s="25" t="s">
+      <c r="F53" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G53" s="23"/>
-      <c r="H53" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I53" s="29"/>
-    </row>
-    <row r="54" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H53" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I53" s="27"/>
+    </row>
+    <row r="54" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A54" s="17"/>
       <c r="B54" s="15" t="s">
         <v>126</v>
@@ -3609,16 +3615,16 @@
       <c r="E54" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F54" s="25" t="s">
+      <c r="F54" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G54" s="23"/>
-      <c r="H54" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I54" s="29"/>
-    </row>
-    <row r="55" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H54" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I54" s="27"/>
+    </row>
+    <row r="55" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A55" s="17" t="s">
         <v>128</v>
       </c>
@@ -3634,16 +3640,16 @@
       <c r="E55" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F55" s="25" t="s">
+      <c r="F55" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G55" s="23"/>
-      <c r="H55" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I55" s="29"/>
-    </row>
-    <row r="56" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H55" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I55" s="27"/>
+    </row>
+    <row r="56" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A56" s="17"/>
       <c r="B56" s="15" t="s">
         <v>131</v>
@@ -3657,16 +3663,16 @@
       <c r="E56" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F56" s="25" t="s">
+      <c r="F56" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G56" s="23"/>
-      <c r="H56" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I56" s="29"/>
-    </row>
-    <row r="57" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H56" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I56" s="27"/>
+    </row>
+    <row r="57" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A57" s="17"/>
       <c r="B57" s="15" t="s">
         <v>133</v>
@@ -3680,16 +3686,16 @@
       <c r="E57" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F57" s="25" t="s">
+      <c r="F57" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G57" s="23"/>
-      <c r="H57" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I57" s="29"/>
-    </row>
-    <row r="58" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H57" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I57" s="27"/>
+    </row>
+    <row r="58" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A58" s="17"/>
       <c r="B58" s="15" t="s">
         <v>135</v>
@@ -3703,16 +3709,16 @@
       <c r="E58" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F58" s="25" t="s">
+      <c r="F58" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G58" s="23"/>
-      <c r="H58" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I58" s="29"/>
-    </row>
-    <row r="59" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H58" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I58" s="27"/>
+    </row>
+    <row r="59" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A59" s="17"/>
       <c r="B59" s="15" t="s">
         <v>137</v>
@@ -3726,16 +3732,16 @@
       <c r="E59" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F59" s="25" t="s">
+      <c r="F59" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G59" s="23"/>
-      <c r="H59" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I59" s="29"/>
-    </row>
-    <row r="60" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H59" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I59" s="27"/>
+    </row>
+    <row r="60" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A60" s="17" t="s">
         <v>139</v>
       </c>
@@ -3751,16 +3757,16 @@
       <c r="E60" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F60" s="25" t="s">
+      <c r="F60" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G60" s="23"/>
-      <c r="H60" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I60" s="29"/>
-    </row>
-    <row r="61" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H60" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I60" s="27"/>
+    </row>
+    <row r="61" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A61" s="17"/>
       <c r="B61" s="15" t="s">
         <v>142</v>
@@ -3774,16 +3780,16 @@
       <c r="E61" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F61" s="25" t="s">
+      <c r="F61" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G61" s="23"/>
-      <c r="H61" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I61" s="29"/>
-    </row>
-    <row r="62" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H61" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I61" s="27"/>
+    </row>
+    <row r="62" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A62" s="17"/>
       <c r="B62" s="15" t="s">
         <v>144</v>
@@ -3797,16 +3803,16 @@
       <c r="E62" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F62" s="25" t="s">
+      <c r="F62" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G62" s="23"/>
-      <c r="H62" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I62" s="29"/>
-    </row>
-    <row r="63" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H62" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I62" s="27"/>
+    </row>
+    <row r="63" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A63" s="17"/>
       <c r="B63" s="15" t="s">
         <v>146</v>
@@ -3820,16 +3826,16 @@
       <c r="E63" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F63" s="25" t="s">
+      <c r="F63" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G63" s="23"/>
-      <c r="H63" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I63" s="29"/>
-    </row>
-    <row r="64" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H63" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I63" s="27"/>
+    </row>
+    <row r="64" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A64" s="17"/>
       <c r="B64" s="15" t="s">
         <v>148</v>
@@ -3843,16 +3849,16 @@
       <c r="E64" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F64" s="25" t="s">
+      <c r="F64" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G64" s="23"/>
-      <c r="H64" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I64" s="29"/>
-    </row>
-    <row r="65" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H64" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I64" s="27"/>
+    </row>
+    <row r="65" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A65" s="17"/>
       <c r="B65" s="15" t="s">
         <v>150</v>
@@ -3866,16 +3872,16 @@
       <c r="E65" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F65" s="25" t="s">
+      <c r="F65" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G65" s="23"/>
-      <c r="H65" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I65" s="29"/>
-    </row>
-    <row r="66" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H65" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I65" s="27"/>
+    </row>
+    <row r="66" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A66" s="14" t="s">
         <v>152</v>
       </c>
@@ -3891,16 +3897,16 @@
       <c r="E66" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F66" s="25" t="s">
+      <c r="F66" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G66" s="23"/>
-      <c r="H66" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I66" s="29"/>
-    </row>
-    <row r="67" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H66" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I66" s="27"/>
+    </row>
+    <row r="67" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A67" s="14"/>
       <c r="B67" s="15" t="s">
         <v>155</v>
@@ -3914,16 +3920,16 @@
       <c r="E67" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F67" s="25" t="s">
+      <c r="F67" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G67" s="23"/>
-      <c r="H67" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I67" s="29"/>
-    </row>
-    <row r="68" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H67" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I67" s="27"/>
+    </row>
+    <row r="68" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A68" s="14"/>
       <c r="B68" s="15" t="s">
         <v>157</v>
@@ -3937,16 +3943,16 @@
       <c r="E68" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F68" s="25" t="s">
+      <c r="F68" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G68" s="23"/>
-      <c r="H68" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I68" s="29"/>
-    </row>
-    <row r="69" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H68" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I68" s="27"/>
+    </row>
+    <row r="69" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A69" s="14"/>
       <c r="B69" s="15" t="s">
         <v>159</v>
@@ -3960,16 +3966,16 @@
       <c r="E69" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F69" s="25" t="s">
+      <c r="F69" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G69" s="23"/>
-      <c r="H69" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I69" s="29"/>
-    </row>
-    <row r="70" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H69" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I69" s="27"/>
+    </row>
+    <row r="70" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A70" s="17" t="s">
         <v>161</v>
       </c>
@@ -3985,16 +3991,16 @@
       <c r="E70" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F70" s="25" t="s">
+      <c r="F70" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G70" s="23"/>
-      <c r="H70" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I70" s="29"/>
-    </row>
-    <row r="71" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H70" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I70" s="27"/>
+    </row>
+    <row r="71" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A71" s="17"/>
       <c r="B71" s="15" t="s">
         <v>164</v>
@@ -4008,16 +4014,16 @@
       <c r="E71" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F71" s="25" t="s">
+      <c r="F71" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G71" s="23"/>
-      <c r="H71" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I71" s="29"/>
-    </row>
-    <row r="72" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H71" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I71" s="27"/>
+    </row>
+    <row r="72" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A72" s="17"/>
       <c r="B72" s="15" t="s">
         <v>166</v>
@@ -4031,16 +4037,16 @@
       <c r="E72" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F72" s="25" t="s">
+      <c r="F72" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G72" s="23"/>
-      <c r="H72" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I72" s="29"/>
-    </row>
-    <row r="73" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H72" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I72" s="27"/>
+    </row>
+    <row r="73" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A73" s="17"/>
       <c r="B73" s="15" t="s">
         <v>168</v>
@@ -4054,16 +4060,16 @@
       <c r="E73" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F73" s="25" t="s">
+      <c r="F73" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G73" s="23"/>
-      <c r="H73" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I73" s="29"/>
-    </row>
-    <row r="74" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H73" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I73" s="27"/>
+    </row>
+    <row r="74" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A74" s="17"/>
       <c r="B74" s="15" t="s">
         <v>170</v>
@@ -4077,16 +4083,16 @@
       <c r="E74" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F74" s="25" t="s">
+      <c r="F74" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G74" s="23"/>
-      <c r="H74" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I74" s="29"/>
-    </row>
-    <row r="75" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H74" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I74" s="27"/>
+    </row>
+    <row r="75" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A75" s="14" t="s">
         <v>172</v>
       </c>
@@ -4102,16 +4108,16 @@
       <c r="E75" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F75" s="25" t="s">
+      <c r="F75" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G75" s="23"/>
-      <c r="H75" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I75" s="29"/>
-    </row>
-    <row r="76" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H75" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I75" s="27"/>
+    </row>
+    <row r="76" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A76" s="14"/>
       <c r="B76" s="15" t="s">
         <v>175</v>
@@ -4125,16 +4131,16 @@
       <c r="E76" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F76" s="25" t="s">
+      <c r="F76" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G76" s="23"/>
-      <c r="H76" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I76" s="29"/>
-    </row>
-    <row r="77" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H76" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I76" s="27"/>
+    </row>
+    <row r="77" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A77" s="14"/>
       <c r="B77" s="15" t="s">
         <v>177</v>
@@ -4148,16 +4154,16 @@
       <c r="E77" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F77" s="25" t="s">
+      <c r="F77" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G77" s="23"/>
-      <c r="H77" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I77" s="29"/>
-    </row>
-    <row r="78" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H77" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I77" s="27"/>
+    </row>
+    <row r="78" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A78" s="14"/>
       <c r="B78" s="15" t="s">
         <v>179</v>
@@ -4171,16 +4177,16 @@
       <c r="E78" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F78" s="25" t="s">
+      <c r="F78" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G78" s="23"/>
-      <c r="H78" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I78" s="29"/>
-    </row>
-    <row r="79" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H78" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I78" s="27"/>
+    </row>
+    <row r="79" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A79" s="14"/>
       <c r="B79" s="15" t="s">
         <v>181</v>
@@ -4194,16 +4200,16 @@
       <c r="E79" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F79" s="25" t="s">
+      <c r="F79" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G79" s="23"/>
-      <c r="H79" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I79" s="29"/>
-    </row>
-    <row r="80" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H79" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I79" s="27"/>
+    </row>
+    <row r="80" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A80" s="14"/>
       <c r="B80" s="15" t="s">
         <v>183</v>
@@ -4217,16 +4223,16 @@
       <c r="E80" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F80" s="25" t="s">
+      <c r="F80" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G80" s="23"/>
-      <c r="H80" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I80" s="29"/>
-    </row>
-    <row r="81" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H80" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I80" s="27"/>
+    </row>
+    <row r="81" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A81" s="14" t="s">
         <v>185</v>
       </c>
@@ -4242,16 +4248,16 @@
       <c r="E81" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F81" s="25" t="s">
+      <c r="F81" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G81" s="23"/>
-      <c r="H81" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I81" s="29"/>
-    </row>
-    <row r="82" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H81" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I81" s="27"/>
+    </row>
+    <row r="82" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A82" s="14"/>
       <c r="B82" s="15" t="s">
         <v>188</v>
@@ -4265,16 +4271,16 @@
       <c r="E82" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F82" s="25" t="s">
+      <c r="F82" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G82" s="23"/>
-      <c r="H82" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I82" s="29"/>
-    </row>
-    <row r="83" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H82" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I82" s="27"/>
+    </row>
+    <row r="83" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A83" s="14"/>
       <c r="B83" s="15" t="s">
         <v>190</v>
@@ -4288,16 +4294,16 @@
       <c r="E83" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F83" s="25" t="s">
+      <c r="F83" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G83" s="23"/>
-      <c r="H83" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I83" s="29"/>
-    </row>
-    <row r="84" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H83" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I83" s="27"/>
+    </row>
+    <row r="84" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A84" s="14"/>
       <c r="B84" s="15" t="s">
         <v>192</v>
@@ -4311,16 +4317,16 @@
       <c r="E84" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F84" s="25" t="s">
+      <c r="F84" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G84" s="23"/>
-      <c r="H84" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I84" s="29"/>
-    </row>
-    <row r="85" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H84" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I84" s="27"/>
+    </row>
+    <row r="85" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A85" s="14"/>
       <c r="B85" s="15" t="s">
         <v>194</v>
@@ -4334,16 +4340,16 @@
       <c r="E85" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F85" s="25" t="s">
+      <c r="F85" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G85" s="23"/>
-      <c r="H85" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I85" s="29"/>
-    </row>
-    <row r="86" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H85" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I85" s="27"/>
+    </row>
+    <row r="86" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A86" s="14"/>
       <c r="B86" s="15" t="s">
         <v>196</v>
@@ -4357,16 +4363,16 @@
       <c r="E86" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F86" s="25" t="s">
+      <c r="F86" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G86" s="23"/>
-      <c r="H86" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I86" s="29"/>
-    </row>
-    <row r="87" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H86" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I86" s="27"/>
+    </row>
+    <row r="87" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A87" s="14" t="s">
         <v>198</v>
       </c>
@@ -4382,16 +4388,16 @@
       <c r="E87" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F87" s="25" t="s">
+      <c r="F87" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G87" s="23"/>
-      <c r="H87" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I87" s="29"/>
-    </row>
-    <row r="88" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H87" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I87" s="27"/>
+    </row>
+    <row r="88" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A88" s="14"/>
       <c r="B88" s="15" t="s">
         <v>201</v>
@@ -4405,16 +4411,16 @@
       <c r="E88" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F88" s="25" t="s">
+      <c r="F88" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G88" s="23"/>
-      <c r="H88" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I88" s="29"/>
-    </row>
-    <row r="89" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H88" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I88" s="27"/>
+    </row>
+    <row r="89" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A89" s="14"/>
       <c r="B89" s="15" t="s">
         <v>203</v>
@@ -4428,16 +4434,16 @@
       <c r="E89" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F89" s="25" t="s">
+      <c r="F89" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G89" s="23"/>
-      <c r="H89" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I89" s="29"/>
-    </row>
-    <row r="90" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H89" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I89" s="27"/>
+    </row>
+    <row r="90" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A90" s="14"/>
       <c r="B90" s="15" t="s">
         <v>205</v>
@@ -4451,16 +4457,16 @@
       <c r="E90" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F90" s="25" t="s">
+      <c r="F90" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G90" s="23"/>
-      <c r="H90" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I90" s="29"/>
-    </row>
-    <row r="91" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H90" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I90" s="27"/>
+    </row>
+    <row r="91" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A91" s="14"/>
       <c r="B91" s="15" t="s">
         <v>207</v>
@@ -4474,16 +4480,16 @@
       <c r="E91" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F91" s="25" t="s">
+      <c r="F91" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G91" s="23"/>
-      <c r="H91" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I91" s="29"/>
-    </row>
-    <row r="92" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H91" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I91" s="27"/>
+    </row>
+    <row r="92" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A92" s="14"/>
       <c r="B92" s="15" t="s">
         <v>209</v>
@@ -4497,16 +4503,16 @@
       <c r="E92" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F92" s="25" t="s">
+      <c r="F92" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G92" s="23"/>
-      <c r="H92" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I92" s="29"/>
-    </row>
-    <row r="93" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H92" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I92" s="27"/>
+    </row>
+    <row r="93" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A93" s="14"/>
       <c r="B93" s="15" t="s">
         <v>211</v>
@@ -4520,16 +4526,16 @@
       <c r="E93" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F93" s="25" t="s">
+      <c r="F93" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G93" s="23"/>
-      <c r="H93" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I93" s="29"/>
-    </row>
-    <row r="94" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H93" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I93" s="27"/>
+    </row>
+    <row r="94" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A94" s="14"/>
       <c r="B94" s="15" t="s">
         <v>213</v>
@@ -4543,16 +4549,16 @@
       <c r="E94" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F94" s="25" t="s">
+      <c r="F94" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G94" s="23"/>
-      <c r="H94" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I94" s="29"/>
-    </row>
-    <row r="95" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H94" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I94" s="27"/>
+    </row>
+    <row r="95" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A95" s="14"/>
       <c r="B95" s="15" t="s">
         <v>215</v>
@@ -4566,16 +4572,16 @@
       <c r="E95" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F95" s="25" t="s">
+      <c r="F95" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G95" s="23"/>
-      <c r="H95" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I95" s="29"/>
-    </row>
-    <row r="96" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H95" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I95" s="27"/>
+    </row>
+    <row r="96" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A96" s="14"/>
       <c r="B96" s="15" t="s">
         <v>217</v>
@@ -4589,16 +4595,16 @@
       <c r="E96" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F96" s="25" t="s">
+      <c r="F96" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G96" s="23"/>
-      <c r="H96" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I96" s="29"/>
-    </row>
-    <row r="97" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H96" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I96" s="27"/>
+    </row>
+    <row r="97" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A97" s="14"/>
       <c r="B97" s="15" t="s">
         <v>219</v>
@@ -4612,16 +4618,16 @@
       <c r="E97" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F97" s="25" t="s">
+      <c r="F97" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G97" s="23"/>
-      <c r="H97" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I97" s="29"/>
-    </row>
-    <row r="98" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H97" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I97" s="27"/>
+    </row>
+    <row r="98" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A98" s="14"/>
       <c r="B98" s="15" t="s">
         <v>221</v>
@@ -4635,16 +4641,16 @@
       <c r="E98" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F98" s="25" t="s">
+      <c r="F98" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G98" s="23"/>
-      <c r="H98" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I98" s="29"/>
-    </row>
-    <row r="99" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H98" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I98" s="27"/>
+    </row>
+    <row r="99" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A99" s="14"/>
       <c r="B99" s="15" t="s">
         <v>223</v>
@@ -4658,16 +4664,16 @@
       <c r="E99" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F99" s="25" t="s">
+      <c r="F99" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G99" s="23"/>
-      <c r="H99" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I99" s="29"/>
-    </row>
-    <row r="100" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H99" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I99" s="27"/>
+    </row>
+    <row r="100" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A100" s="14"/>
       <c r="B100" s="15" t="s">
         <v>225</v>
@@ -4681,16 +4687,16 @@
       <c r="E100" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F100" s="25" t="s">
+      <c r="F100" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G100" s="23"/>
-      <c r="H100" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I100" s="29"/>
-    </row>
-    <row r="101" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H100" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I100" s="27"/>
+    </row>
+    <row r="101" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A101" s="14"/>
       <c r="B101" s="15" t="s">
         <v>227</v>
@@ -4704,16 +4710,16 @@
       <c r="E101" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F101" s="25" t="s">
+      <c r="F101" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G101" s="23"/>
-      <c r="H101" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I101" s="29"/>
-    </row>
-    <row r="102" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H101" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I101" s="27"/>
+    </row>
+    <row r="102" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A102" s="14"/>
       <c r="B102" s="15" t="s">
         <v>229</v>
@@ -4727,16 +4733,16 @@
       <c r="E102" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F102" s="25" t="s">
+      <c r="F102" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G102" s="23"/>
-      <c r="H102" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I102" s="29"/>
-    </row>
-    <row r="103" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H102" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I102" s="27"/>
+    </row>
+    <row r="103" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A103" s="14"/>
       <c r="B103" s="15" t="s">
         <v>231</v>
@@ -4750,16 +4756,16 @@
       <c r="E103" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F103" s="25" t="s">
+      <c r="F103" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G103" s="23"/>
-      <c r="H103" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I103" s="29"/>
-    </row>
-    <row r="104" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H103" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I103" s="27"/>
+    </row>
+    <row r="104" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A104" s="14"/>
       <c r="B104" s="15" t="s">
         <v>233</v>
@@ -4773,16 +4779,16 @@
       <c r="E104" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F104" s="25" t="s">
+      <c r="F104" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G104" s="23"/>
-      <c r="H104" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I104" s="29"/>
-    </row>
-    <row r="105" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H104" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I104" s="27"/>
+    </row>
+    <row r="105" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A105" s="14" t="s">
         <v>235</v>
       </c>
@@ -4798,16 +4804,16 @@
       <c r="E105" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F105" s="25" t="s">
+      <c r="F105" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G105" s="23"/>
-      <c r="H105" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I105" s="29"/>
-    </row>
-    <row r="106" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H105" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I105" s="27"/>
+    </row>
+    <row r="106" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A106" s="14"/>
       <c r="B106" s="15" t="s">
         <v>238</v>
@@ -4821,16 +4827,16 @@
       <c r="E106" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F106" s="25" t="s">
+      <c r="F106" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G106" s="23"/>
-      <c r="H106" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I106" s="29"/>
-    </row>
-    <row r="107" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H106" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I106" s="27"/>
+    </row>
+    <row r="107" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A107" s="14"/>
       <c r="B107" s="15" t="s">
         <v>240</v>
@@ -4844,16 +4850,16 @@
       <c r="E107" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F107" s="25" t="s">
+      <c r="F107" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G107" s="23"/>
-      <c r="H107" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I107" s="29"/>
-    </row>
-    <row r="108" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H107" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I107" s="27"/>
+    </row>
+    <row r="108" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A108" s="14"/>
       <c r="B108" s="15" t="s">
         <v>242</v>
@@ -4867,16 +4873,16 @@
       <c r="E108" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F108" s="25" t="s">
+      <c r="F108" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G108" s="23"/>
-      <c r="H108" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I108" s="29"/>
-    </row>
-    <row r="109" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H108" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I108" s="27"/>
+    </row>
+    <row r="109" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A109" s="14"/>
       <c r="B109" s="15" t="s">
         <v>244</v>
@@ -4890,16 +4896,16 @@
       <c r="E109" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F109" s="25" t="s">
+      <c r="F109" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G109" s="23"/>
-      <c r="H109" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I109" s="29"/>
-    </row>
-    <row r="110" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="H109" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I109" s="27"/>
+    </row>
+    <row r="110" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A110" s="14"/>
       <c r="B110" s="15" t="s">
         <v>246</v>
@@ -4913,17 +4919,17 @@
       <c r="E110" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F110" s="25" t="s">
+      <c r="F110" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G110" s="23"/>
-      <c r="H110" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I110" s="29"/>
-    </row>
-    <row r="111" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A111" s="30" t="s">
+      <c r="H110" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I110" s="27"/>
+    </row>
+    <row r="111" s="2" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A111" s="28" t="s">
         <v>248</v>
       </c>
       <c r="B111" s="15" t="s">
@@ -4938,17 +4944,17 @@
       <c r="E111" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F111" s="25" t="s">
+      <c r="F111" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G111" s="23"/>
-      <c r="H111" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I111" s="29"/>
-    </row>
-    <row r="112" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A112" s="31"/>
+      <c r="H111" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I111" s="27"/>
+    </row>
+    <row r="112" s="2" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A112" s="29"/>
       <c r="B112" s="15" t="s">
         <v>251</v>
       </c>
@@ -4961,17 +4967,17 @@
       <c r="E112" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F112" s="25" t="s">
+      <c r="F112" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G112" s="23"/>
-      <c r="H112" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I112" s="29"/>
-    </row>
-    <row r="113" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A113" s="31"/>
+      <c r="H112" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I112" s="27"/>
+    </row>
+    <row r="113" s="2" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A113" s="29"/>
       <c r="B113" s="15" t="s">
         <v>253</v>
       </c>
@@ -4984,17 +4990,17 @@
       <c r="E113" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F113" s="25" t="s">
+      <c r="F113" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G113" s="23"/>
-      <c r="H113" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I113" s="29"/>
-    </row>
-    <row r="114" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A114" s="31"/>
+      <c r="H113" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I113" s="27"/>
+    </row>
+    <row r="114" s="2" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A114" s="29"/>
       <c r="B114" s="15" t="s">
         <v>255</v>
       </c>
@@ -5007,17 +5013,17 @@
       <c r="E114" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F114" s="25" t="s">
+      <c r="F114" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G114" s="23"/>
-      <c r="H114" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I114" s="29"/>
-    </row>
-    <row r="115" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A115" s="31"/>
+      <c r="H114" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I114" s="27"/>
+    </row>
+    <row r="115" s="2" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A115" s="29"/>
       <c r="B115" s="15" t="s">
         <v>257</v>
       </c>
@@ -5030,17 +5036,17 @@
       <c r="E115" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F115" s="25" t="s">
+      <c r="F115" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G115" s="23"/>
-      <c r="H115" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I115" s="29"/>
-    </row>
-    <row r="116" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A116" s="31"/>
+      <c r="H115" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I115" s="27"/>
+    </row>
+    <row r="116" s="2" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A116" s="29"/>
       <c r="B116" s="15" t="s">
         <v>259</v>
       </c>
@@ -5053,17 +5059,17 @@
       <c r="E116" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F116" s="25" t="s">
+      <c r="F116" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G116" s="23"/>
-      <c r="H116" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I116" s="29"/>
-    </row>
-    <row r="117" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A117" s="31"/>
+      <c r="H116" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I116" s="27"/>
+    </row>
+    <row r="117" s="2" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A117" s="29"/>
       <c r="B117" s="15" t="s">
         <v>261</v>
       </c>
@@ -5076,17 +5082,17 @@
       <c r="E117" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F117" s="25" t="s">
+      <c r="F117" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G117" s="23"/>
-      <c r="H117" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I117" s="29"/>
-    </row>
-    <row r="118" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A118" s="31"/>
+      <c r="H117" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I117" s="27"/>
+    </row>
+    <row r="118" s="2" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A118" s="29"/>
       <c r="B118" s="15" t="s">
         <v>263</v>
       </c>
@@ -5099,17 +5105,17 @@
       <c r="E118" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F118" s="25" t="s">
+      <c r="F118" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G118" s="23"/>
-      <c r="H118" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I118" s="29"/>
-    </row>
-    <row r="119" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A119" s="31"/>
+      <c r="H118" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I118" s="27"/>
+    </row>
+    <row r="119" s="2" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A119" s="29"/>
       <c r="B119" s="15" t="s">
         <v>265</v>
       </c>
@@ -5122,17 +5128,17 @@
       <c r="E119" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F119" s="25" t="s">
+      <c r="F119" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G119" s="23"/>
-      <c r="H119" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I119" s="29"/>
-    </row>
-    <row r="120" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A120" s="31"/>
+      <c r="H119" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I119" s="27"/>
+    </row>
+    <row r="120" s="2" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A120" s="29"/>
       <c r="B120" s="15" t="s">
         <v>267</v>
       </c>
@@ -5145,17 +5151,17 @@
       <c r="E120" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F120" s="25" t="s">
+      <c r="F120" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G120" s="23"/>
-      <c r="H120" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I120" s="29"/>
-    </row>
-    <row r="121" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A121" s="31"/>
+      <c r="H120" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I120" s="27"/>
+    </row>
+    <row r="121" s="2" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A121" s="29"/>
       <c r="B121" s="15" t="s">
         <v>269</v>
       </c>
@@ -5168,37 +5174,37 @@
       <c r="E121" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F121" s="25" t="s">
+      <c r="F121" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G121" s="23"/>
-      <c r="H121" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I121" s="29"/>
-    </row>
-    <row r="122" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A122" s="32"/>
-      <c r="B122" s="33" t="s">
+      <c r="H121" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I121" s="27"/>
+    </row>
+    <row r="122" s="2" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A122" s="30"/>
+      <c r="B122" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="C122" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="D122" s="35" t="s">
+      <c r="C122" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D122" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="E122" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="F122" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G122" s="37"/>
-      <c r="H122" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="I122" s="39"/>
+      <c r="E122" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F122" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G122" s="35"/>
+      <c r="H122" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I122" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="19">

--- a/HNS.xlsx
+++ b/HNS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12375"/>
+    <workbookView windowWidth="28695" windowHeight="13305"/>
   </bookViews>
   <sheets>
     <sheet name="HNS" sheetId="1" r:id="rId1"/>
@@ -843,13 +843,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="m&quot;／&quot;d&quot;／&quot;yyyy"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m&quot;／&quot;d&quot;／&quot;yyyy"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="33">
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <charset val="0"/>
+    </font>
     <font>
       <sz val="12"/>
       <name val="AR PL UKai CN"/>
@@ -863,11 +868,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
     </font>
@@ -931,21 +931,38 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Noto Sans CJK SC Regular"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -953,44 +970,60 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -998,37 +1031,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1036,54 +1039,45 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1132,7 +1126,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1144,19 +1222,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1168,19 +1294,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1192,127 +1306,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1615,41 +1609,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1678,6 +1642,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1685,6 +1664,30 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1703,358 +1706,349 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="40">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="7" borderId="6" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="12" fillId="7" borderId="6" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="20" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="20" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="19" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="常规" xfId="5"/>
-    <cellStyle name="40% - Accent5" xfId="6" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="7" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="9" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="10" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="11" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="14" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="15" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="16" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="17" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="18" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="19" builtinId="31"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Comma[0]" xfId="21" builtinId="6"/>
-    <cellStyle name="Neutral" xfId="22" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="23" builtinId="32"/>
-    <cellStyle name="Bad" xfId="24" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="25" builtinId="42"/>
-    <cellStyle name="Total" xfId="26" builtinId="25"/>
-    <cellStyle name="Output" xfId="27" builtinId="21"/>
-    <cellStyle name="Currency" xfId="28" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="29" builtinId="38"/>
-    <cellStyle name="Note" xfId="30" builtinId="10"/>
-    <cellStyle name="Input" xfId="31" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="32" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="33" builtinId="22"/>
-    <cellStyle name="Good" xfId="34" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="35" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="36" builtinId="53"/>
-    <cellStyle name="60% - Accent3" xfId="37" builtinId="40"/>
-    <cellStyle name="Currency[0]" xfId="38" builtinId="7"/>
-    <cellStyle name="Heading 1" xfId="39" builtinId="16"/>
-    <cellStyle name="20% - Accent6" xfId="40" builtinId="50"/>
-    <cellStyle name="Title" xfId="41" builtinId="15"/>
-    <cellStyle name="Warning Text" xfId="42" builtinId="11"/>
-    <cellStyle name="20% - Accent1" xfId="43" builtinId="30"/>
-    <cellStyle name="Hyperlink" xfId="44" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="46" builtinId="17"/>
-    <cellStyle name="Comma" xfId="47" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="48" builtinId="23"/>
-    <cellStyle name="Percent" xfId="49" builtinId="5"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
+    <cellStyle name="输入" xfId="5" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
+    <cellStyle name="货币" xfId="8" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
+    <cellStyle name="百分比" xfId="10" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
+    <cellStyle name="计算" xfId="16" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
+    <cellStyle name="适中" xfId="18" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
+    <cellStyle name="好" xfId="20" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
+    <cellStyle name="汇总" xfId="22" builtinId="25"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
+    <cellStyle name="标题" xfId="34" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
+    <cellStyle name="注释" xfId="38" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -2085,10 +2079,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="504D59"/>
+        <a:sysClr val="windowText" lastClr="212121"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="F3F3F3"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2342,29 +2336,29 @@
   <dimension ref="A1:I122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N22" sqref="N22"/>
+      <selection pane="bottomLeft" activeCell="N116" sqref="N116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.4444444444444" defaultRowHeight="27" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.4416666666667" defaultRowHeight="27" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.8296296296296" style="2" customWidth="1"/>
-    <col min="2" max="2" width="32.8666666666667" style="3"/>
-    <col min="3" max="3" width="7.83703703703704" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.80740740740741" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.9851851851852" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.0222222222222" style="4" customWidth="1"/>
-    <col min="8" max="8" width="9.80740740740741" style="2" customWidth="1"/>
-    <col min="9" max="9" width="47.4444444444444" style="1" customWidth="1"/>
-    <col min="10" max="252" width="11.5703703703704" style="1"/>
-    <col min="253" max="253" width="7" style="5"/>
-    <col min="254" max="16381" width="12.4444444444444" style="6"/>
-    <col min="16382" max="16384" width="12.4444444444444" style="7"/>
+    <col min="1" max="1" width="18.8333333333333" style="3" customWidth="1"/>
+    <col min="2" max="2" width="32.8666666666667" style="4"/>
+    <col min="3" max="3" width="7.83333333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.6" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.80833333333333" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.9833333333333" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.025" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.80833333333333" style="3" customWidth="1"/>
+    <col min="9" max="9" width="47.4416666666667" style="2" customWidth="1"/>
+    <col min="10" max="252" width="11.5666666666667" style="2"/>
+    <col min="253" max="253" width="7"/>
+    <col min="254" max="16381" width="12.4416666666667" style="6"/>
+    <col min="16382" max="16384" width="12.4416666666667" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="36" customHeight="1" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="36" customHeight="1" spans="1:9">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2393,7 +2387,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="2" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
@@ -2420,7 +2414,7 @@
       </c>
       <c r="I2" s="29"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="3" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A3" s="14"/>
       <c r="B3" s="15" t="s">
         <v>16</v>
@@ -2445,7 +2439,7 @@
       </c>
       <c r="I3" s="30"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="4" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -2472,7 +2466,7 @@
       </c>
       <c r="I4" s="30"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="5" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A5" s="17"/>
       <c r="B5" s="15" t="s">
         <v>21</v>
@@ -2497,7 +2491,7 @@
       </c>
       <c r="I5" s="30"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="6" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A6" s="17"/>
       <c r="B6" s="15" t="s">
         <v>23</v>
@@ -2522,7 +2516,7 @@
       </c>
       <c r="I6" s="30"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="7" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A7" s="17"/>
       <c r="B7" s="15" t="s">
         <v>25</v>
@@ -2547,7 +2541,7 @@
       </c>
       <c r="I7" s="30"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="8" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A8" s="17"/>
       <c r="B8" s="15" t="s">
         <v>27</v>
@@ -2572,7 +2566,7 @@
       </c>
       <c r="I8" s="30"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="9" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A9" s="14" t="s">
         <v>29</v>
       </c>
@@ -2599,7 +2593,7 @@
       </c>
       <c r="I9" s="30"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="10" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A10" s="14"/>
       <c r="B10" s="15" t="s">
         <v>32</v>
@@ -2624,7 +2618,7 @@
       </c>
       <c r="I10" s="30"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="11" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A11" s="14"/>
       <c r="B11" s="15" t="s">
         <v>34</v>
@@ -2649,7 +2643,7 @@
       </c>
       <c r="I11" s="30"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="12" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A12" s="14" t="s">
         <v>36</v>
       </c>
@@ -2676,7 +2670,7 @@
       </c>
       <c r="I12" s="30"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="13" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A13" s="14"/>
       <c r="B13" s="15" t="s">
         <v>39</v>
@@ -2701,7 +2695,7 @@
       </c>
       <c r="I13" s="30"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="14" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A14" s="14"/>
       <c r="B14" s="15" t="s">
         <v>41</v>
@@ -2726,7 +2720,7 @@
       </c>
       <c r="I14" s="30"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="15" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
         <v>43</v>
@@ -2751,7 +2745,7 @@
       </c>
       <c r="I15" s="30"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="16" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A16" s="14"/>
       <c r="B16" s="15" t="s">
         <v>45</v>
@@ -2776,7 +2770,7 @@
       </c>
       <c r="I16" s="30"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="17" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A17" s="14"/>
       <c r="B17" s="15" t="s">
         <v>47</v>
@@ -2801,7 +2795,7 @@
       </c>
       <c r="I17" s="30"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="18" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A18" s="14"/>
       <c r="B18" s="15" t="s">
         <v>49</v>
@@ -2826,7 +2820,7 @@
       </c>
       <c r="I18" s="30"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="19" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A19" s="17" t="s">
         <v>51</v>
       </c>
@@ -2853,7 +2847,7 @@
       </c>
       <c r="I19" s="30"/>
     </row>
-    <row r="20" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="20" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A20" s="17"/>
       <c r="B20" s="15" t="s">
         <v>54</v>
@@ -2878,7 +2872,7 @@
       </c>
       <c r="I20" s="30"/>
     </row>
-    <row r="21" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="21" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A21" s="14" t="s">
         <v>56</v>
       </c>
@@ -2905,7 +2899,7 @@
       </c>
       <c r="I21" s="30"/>
     </row>
-    <row r="22" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="22" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A22" s="14"/>
       <c r="B22" s="15" t="s">
         <v>59</v>
@@ -2930,7 +2924,7 @@
       </c>
       <c r="I22" s="30"/>
     </row>
-    <row r="23" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="23" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A23" s="14"/>
       <c r="B23" s="15" t="s">
         <v>61</v>
@@ -2955,7 +2949,7 @@
       </c>
       <c r="I23" s="30"/>
     </row>
-    <row r="24" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="24" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A24" s="14"/>
       <c r="B24" s="15" t="s">
         <v>63</v>
@@ -2980,7 +2974,7 @@
       </c>
       <c r="I24" s="30"/>
     </row>
-    <row r="25" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="25" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A25" s="14"/>
       <c r="B25" s="15" t="s">
         <v>65</v>
@@ -3005,7 +2999,7 @@
       </c>
       <c r="I25" s="30"/>
     </row>
-    <row r="26" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="26" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A26" s="14"/>
       <c r="B26" s="15" t="s">
         <v>67</v>
@@ -3030,7 +3024,7 @@
       </c>
       <c r="I26" s="30"/>
     </row>
-    <row r="27" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="27" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A27" s="14"/>
       <c r="B27" s="15" t="s">
         <v>69</v>
@@ -3055,7 +3049,7 @@
       </c>
       <c r="I27" s="30"/>
     </row>
-    <row r="28" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="28" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A28" s="17" t="s">
         <v>71</v>
       </c>
@@ -3082,7 +3076,7 @@
       </c>
       <c r="I28" s="30"/>
     </row>
-    <row r="29" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="29" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A29" s="17"/>
       <c r="B29" s="15" t="s">
         <v>74</v>
@@ -3107,7 +3101,7 @@
       </c>
       <c r="I29" s="30"/>
     </row>
-    <row r="30" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="30" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A30" s="17"/>
       <c r="B30" s="15" t="s">
         <v>76</v>
@@ -3132,7 +3126,7 @@
       </c>
       <c r="I30" s="30"/>
     </row>
-    <row r="31" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="31" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A31" s="17"/>
       <c r="B31" s="15" t="s">
         <v>78</v>
@@ -3157,7 +3151,7 @@
       </c>
       <c r="I31" s="30"/>
     </row>
-    <row r="32" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="32" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A32" s="17"/>
       <c r="B32" s="15" t="s">
         <v>80</v>
@@ -3182,7 +3176,7 @@
       </c>
       <c r="I32" s="30"/>
     </row>
-    <row r="33" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="33" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A33" s="17" t="s">
         <v>82</v>
       </c>
@@ -3209,7 +3203,7 @@
       </c>
       <c r="I33" s="30"/>
     </row>
-    <row r="34" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="34" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A34" s="17"/>
       <c r="B34" s="15" t="s">
         <v>85</v>
@@ -3234,7 +3228,7 @@
       </c>
       <c r="I34" s="30"/>
     </row>
-    <row r="35" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="35" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A35" s="17"/>
       <c r="B35" s="15" t="s">
         <v>87</v>
@@ -3259,7 +3253,7 @@
       </c>
       <c r="I35" s="30"/>
     </row>
-    <row r="36" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="36" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A36" s="17"/>
       <c r="B36" s="15" t="s">
         <v>89</v>
@@ -3284,7 +3278,7 @@
       </c>
       <c r="I36" s="30"/>
     </row>
-    <row r="37" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="37" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A37" s="17"/>
       <c r="B37" s="15" t="s">
         <v>91</v>
@@ -3309,7 +3303,7 @@
       </c>
       <c r="I37" s="30"/>
     </row>
-    <row r="38" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="38" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A38" s="17" t="s">
         <v>93</v>
       </c>
@@ -3336,7 +3330,7 @@
       </c>
       <c r="I38" s="30"/>
     </row>
-    <row r="39" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="39" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A39" s="17"/>
       <c r="B39" s="15" t="s">
         <v>96</v>
@@ -3361,7 +3355,7 @@
       </c>
       <c r="I39" s="30"/>
     </row>
-    <row r="40" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="40" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A40" s="17"/>
       <c r="B40" s="15" t="s">
         <v>98</v>
@@ -3386,7 +3380,7 @@
       </c>
       <c r="I40" s="30"/>
     </row>
-    <row r="41" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="41" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A41" s="17"/>
       <c r="B41" s="15" t="s">
         <v>100</v>
@@ -3411,7 +3405,7 @@
       </c>
       <c r="I41" s="30"/>
     </row>
-    <row r="42" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="42" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A42" s="17"/>
       <c r="B42" s="15" t="s">
         <v>102</v>
@@ -3436,7 +3430,7 @@
       </c>
       <c r="I42" s="30"/>
     </row>
-    <row r="43" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="43" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A43" s="17"/>
       <c r="B43" s="15" t="s">
         <v>104</v>
@@ -3461,7 +3455,7 @@
       </c>
       <c r="I43" s="30"/>
     </row>
-    <row r="44" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="44" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A44" s="17" t="s">
         <v>106</v>
       </c>
@@ -3488,7 +3482,7 @@
       </c>
       <c r="I44" s="30"/>
     </row>
-    <row r="45" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="45" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A45" s="17"/>
       <c r="B45" s="15" t="s">
         <v>109</v>
@@ -3513,7 +3507,7 @@
       </c>
       <c r="I45" s="30"/>
     </row>
-    <row r="46" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="46" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A46" s="17"/>
       <c r="B46" s="15" t="s">
         <v>111</v>
@@ -3538,7 +3532,7 @@
       </c>
       <c r="I46" s="30"/>
     </row>
-    <row r="47" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="47" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A47" s="17"/>
       <c r="B47" s="15" t="s">
         <v>113</v>
@@ -3563,7 +3557,7 @@
       </c>
       <c r="I47" s="30"/>
     </row>
-    <row r="48" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="48" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A48" s="17"/>
       <c r="B48" s="15" t="s">
         <v>115</v>
@@ -3588,7 +3582,7 @@
       </c>
       <c r="I48" s="30"/>
     </row>
-    <row r="49" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="49" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A49" s="17"/>
       <c r="B49" s="15" t="s">
         <v>117</v>
@@ -3613,7 +3607,7 @@
       </c>
       <c r="I49" s="30"/>
     </row>
-    <row r="50" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="50" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A50" s="17"/>
       <c r="B50" s="15" t="s">
         <v>119</v>
@@ -3638,7 +3632,7 @@
       </c>
       <c r="I50" s="30"/>
     </row>
-    <row r="51" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="51" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A51" s="17"/>
       <c r="B51" s="15" t="s">
         <v>121</v>
@@ -3663,7 +3657,7 @@
       </c>
       <c r="I51" s="30"/>
     </row>
-    <row r="52" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="52" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A52" s="17"/>
       <c r="B52" s="15" t="s">
         <v>123</v>
@@ -3688,7 +3682,7 @@
       </c>
       <c r="I52" s="30"/>
     </row>
-    <row r="53" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="53" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A53" s="17"/>
       <c r="B53" s="15" t="s">
         <v>125</v>
@@ -3713,7 +3707,7 @@
       </c>
       <c r="I53" s="30"/>
     </row>
-    <row r="54" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="54" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A54" s="17"/>
       <c r="B54" s="15" t="s">
         <v>127</v>
@@ -3738,7 +3732,7 @@
       </c>
       <c r="I54" s="30"/>
     </row>
-    <row r="55" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="55" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A55" s="17" t="s">
         <v>129</v>
       </c>
@@ -3765,7 +3759,7 @@
       </c>
       <c r="I55" s="30"/>
     </row>
-    <row r="56" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="56" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A56" s="17"/>
       <c r="B56" s="15" t="s">
         <v>132</v>
@@ -3790,7 +3784,7 @@
       </c>
       <c r="I56" s="30"/>
     </row>
-    <row r="57" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="57" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A57" s="17"/>
       <c r="B57" s="15" t="s">
         <v>134</v>
@@ -3815,7 +3809,7 @@
       </c>
       <c r="I57" s="30"/>
     </row>
-    <row r="58" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="58" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A58" s="17"/>
       <c r="B58" s="15" t="s">
         <v>136</v>
@@ -3840,7 +3834,7 @@
       </c>
       <c r="I58" s="30"/>
     </row>
-    <row r="59" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="59" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A59" s="17"/>
       <c r="B59" s="15" t="s">
         <v>138</v>
@@ -3865,7 +3859,7 @@
       </c>
       <c r="I59" s="30"/>
     </row>
-    <row r="60" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="60" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A60" s="17" t="s">
         <v>140</v>
       </c>
@@ -3892,7 +3886,7 @@
       </c>
       <c r="I60" s="30"/>
     </row>
-    <row r="61" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="61" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A61" s="17"/>
       <c r="B61" s="15" t="s">
         <v>143</v>
@@ -3917,7 +3911,7 @@
       </c>
       <c r="I61" s="30"/>
     </row>
-    <row r="62" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="62" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A62" s="17"/>
       <c r="B62" s="15" t="s">
         <v>145</v>
@@ -3942,7 +3936,7 @@
       </c>
       <c r="I62" s="30"/>
     </row>
-    <row r="63" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="63" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A63" s="17"/>
       <c r="B63" s="15" t="s">
         <v>147</v>
@@ -3967,7 +3961,7 @@
       </c>
       <c r="I63" s="30"/>
     </row>
-    <row r="64" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="64" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A64" s="17"/>
       <c r="B64" s="15" t="s">
         <v>149</v>
@@ -3992,7 +3986,7 @@
       </c>
       <c r="I64" s="30"/>
     </row>
-    <row r="65" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="65" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A65" s="17"/>
       <c r="B65" s="15" t="s">
         <v>151</v>
@@ -4017,7 +4011,7 @@
       </c>
       <c r="I65" s="30"/>
     </row>
-    <row r="66" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="66" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A66" s="14" t="s">
         <v>153</v>
       </c>
@@ -4044,7 +4038,7 @@
       </c>
       <c r="I66" s="30"/>
     </row>
-    <row r="67" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="67" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A67" s="14"/>
       <c r="B67" s="15" t="s">
         <v>156</v>
@@ -4069,7 +4063,7 @@
       </c>
       <c r="I67" s="30"/>
     </row>
-    <row r="68" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="68" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A68" s="14"/>
       <c r="B68" s="15" t="s">
         <v>158</v>
@@ -4094,7 +4088,7 @@
       </c>
       <c r="I68" s="30"/>
     </row>
-    <row r="69" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="69" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A69" s="14"/>
       <c r="B69" s="15" t="s">
         <v>160</v>
@@ -4119,7 +4113,7 @@
       </c>
       <c r="I69" s="30"/>
     </row>
-    <row r="70" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="70" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A70" s="17" t="s">
         <v>162</v>
       </c>
@@ -4146,7 +4140,7 @@
       </c>
       <c r="I70" s="30"/>
     </row>
-    <row r="71" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="71" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A71" s="17"/>
       <c r="B71" s="15" t="s">
         <v>165</v>
@@ -4171,7 +4165,7 @@
       </c>
       <c r="I71" s="30"/>
     </row>
-    <row r="72" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="72" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A72" s="17"/>
       <c r="B72" s="15" t="s">
         <v>167</v>
@@ -4196,7 +4190,7 @@
       </c>
       <c r="I72" s="30"/>
     </row>
-    <row r="73" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="73" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A73" s="17"/>
       <c r="B73" s="15" t="s">
         <v>169</v>
@@ -4221,7 +4215,7 @@
       </c>
       <c r="I73" s="30"/>
     </row>
-    <row r="74" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="74" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A74" s="17"/>
       <c r="B74" s="15" t="s">
         <v>171</v>
@@ -4246,7 +4240,7 @@
       </c>
       <c r="I74" s="30"/>
     </row>
-    <row r="75" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="75" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A75" s="14" t="s">
         <v>173</v>
       </c>
@@ -4273,7 +4267,7 @@
       </c>
       <c r="I75" s="30"/>
     </row>
-    <row r="76" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="76" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A76" s="14"/>
       <c r="B76" s="15" t="s">
         <v>176</v>
@@ -4298,7 +4292,7 @@
       </c>
       <c r="I76" s="30"/>
     </row>
-    <row r="77" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="77" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A77" s="14"/>
       <c r="B77" s="15" t="s">
         <v>178</v>
@@ -4323,7 +4317,7 @@
       </c>
       <c r="I77" s="30"/>
     </row>
-    <row r="78" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="78" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A78" s="14"/>
       <c r="B78" s="15" t="s">
         <v>180</v>
@@ -4348,7 +4342,7 @@
       </c>
       <c r="I78" s="30"/>
     </row>
-    <row r="79" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="79" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A79" s="14"/>
       <c r="B79" s="15" t="s">
         <v>182</v>
@@ -4373,7 +4367,7 @@
       </c>
       <c r="I79" s="30"/>
     </row>
-    <row r="80" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="80" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A80" s="14"/>
       <c r="B80" s="15" t="s">
         <v>184</v>
@@ -4398,7 +4392,7 @@
       </c>
       <c r="I80" s="30"/>
     </row>
-    <row r="81" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="81" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A81" s="14" t="s">
         <v>186</v>
       </c>
@@ -4425,7 +4419,7 @@
       </c>
       <c r="I81" s="30"/>
     </row>
-    <row r="82" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="82" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A82" s="14"/>
       <c r="B82" s="15" t="s">
         <v>189</v>
@@ -4450,7 +4444,7 @@
       </c>
       <c r="I82" s="30"/>
     </row>
-    <row r="83" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="83" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A83" s="14"/>
       <c r="B83" s="15" t="s">
         <v>191</v>
@@ -4475,7 +4469,7 @@
       </c>
       <c r="I83" s="30"/>
     </row>
-    <row r="84" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="84" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A84" s="14"/>
       <c r="B84" s="15" t="s">
         <v>193</v>
@@ -4500,7 +4494,7 @@
       </c>
       <c r="I84" s="30"/>
     </row>
-    <row r="85" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="85" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A85" s="14"/>
       <c r="B85" s="15" t="s">
         <v>195</v>
@@ -4525,7 +4519,7 @@
       </c>
       <c r="I85" s="30"/>
     </row>
-    <row r="86" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="86" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A86" s="14"/>
       <c r="B86" s="15" t="s">
         <v>197</v>
@@ -4550,7 +4544,7 @@
       </c>
       <c r="I86" s="30"/>
     </row>
-    <row r="87" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="87" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A87" s="14" t="s">
         <v>199</v>
       </c>
@@ -4577,7 +4571,7 @@
       </c>
       <c r="I87" s="30"/>
     </row>
-    <row r="88" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="88" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A88" s="14"/>
       <c r="B88" s="15" t="s">
         <v>202</v>
@@ -4602,7 +4596,7 @@
       </c>
       <c r="I88" s="30"/>
     </row>
-    <row r="89" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="89" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A89" s="14"/>
       <c r="B89" s="15" t="s">
         <v>204</v>
@@ -4627,7 +4621,7 @@
       </c>
       <c r="I89" s="30"/>
     </row>
-    <row r="90" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="90" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A90" s="14"/>
       <c r="B90" s="15" t="s">
         <v>206</v>
@@ -4652,7 +4646,7 @@
       </c>
       <c r="I90" s="30"/>
     </row>
-    <row r="91" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="91" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A91" s="14"/>
       <c r="B91" s="15" t="s">
         <v>208</v>
@@ -4677,7 +4671,7 @@
       </c>
       <c r="I91" s="30"/>
     </row>
-    <row r="92" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="92" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A92" s="14"/>
       <c r="B92" s="15" t="s">
         <v>210</v>
@@ -4702,7 +4696,7 @@
       </c>
       <c r="I92" s="30"/>
     </row>
-    <row r="93" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="93" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A93" s="14"/>
       <c r="B93" s="15" t="s">
         <v>212</v>
@@ -4727,7 +4721,7 @@
       </c>
       <c r="I93" s="30"/>
     </row>
-    <row r="94" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="94" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A94" s="14"/>
       <c r="B94" s="15" t="s">
         <v>214</v>
@@ -4752,7 +4746,7 @@
       </c>
       <c r="I94" s="30"/>
     </row>
-    <row r="95" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="95" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A95" s="14"/>
       <c r="B95" s="15" t="s">
         <v>216</v>
@@ -4777,7 +4771,7 @@
       </c>
       <c r="I95" s="30"/>
     </row>
-    <row r="96" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="96" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A96" s="14"/>
       <c r="B96" s="15" t="s">
         <v>218</v>
@@ -4802,7 +4796,7 @@
       </c>
       <c r="I96" s="30"/>
     </row>
-    <row r="97" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="97" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A97" s="14"/>
       <c r="B97" s="15" t="s">
         <v>220</v>
@@ -4827,7 +4821,7 @@
       </c>
       <c r="I97" s="30"/>
     </row>
-    <row r="98" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="98" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A98" s="14"/>
       <c r="B98" s="15" t="s">
         <v>222</v>
@@ -4852,7 +4846,7 @@
       </c>
       <c r="I98" s="30"/>
     </row>
-    <row r="99" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="99" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A99" s="14"/>
       <c r="B99" s="15" t="s">
         <v>224</v>
@@ -4877,7 +4871,7 @@
       </c>
       <c r="I99" s="30"/>
     </row>
-    <row r="100" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="100" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A100" s="14"/>
       <c r="B100" s="15" t="s">
         <v>226</v>
@@ -4902,7 +4896,7 @@
       </c>
       <c r="I100" s="30"/>
     </row>
-    <row r="101" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="101" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A101" s="14"/>
       <c r="B101" s="15" t="s">
         <v>228</v>
@@ -4927,7 +4921,7 @@
       </c>
       <c r="I101" s="30"/>
     </row>
-    <row r="102" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="102" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A102" s="14"/>
       <c r="B102" s="15" t="s">
         <v>230</v>
@@ -4952,7 +4946,7 @@
       </c>
       <c r="I102" s="30"/>
     </row>
-    <row r="103" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="103" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A103" s="14"/>
       <c r="B103" s="15" t="s">
         <v>232</v>
@@ -4977,7 +4971,7 @@
       </c>
       <c r="I103" s="30"/>
     </row>
-    <row r="104" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="104" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A104" s="14"/>
       <c r="B104" s="15" t="s">
         <v>234</v>
@@ -5002,7 +4996,7 @@
       </c>
       <c r="I104" s="30"/>
     </row>
-    <row r="105" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="105" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A105" s="14" t="s">
         <v>236</v>
       </c>
@@ -5021,13 +5015,15 @@
       <c r="F105" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="G105" s="24"/>
+      <c r="G105" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="H105" s="27" t="s">
         <v>13</v>
       </c>
       <c r="I105" s="30"/>
     </row>
-    <row r="106" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="106" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A106" s="14"/>
       <c r="B106" s="15" t="s">
         <v>239</v>
@@ -5044,13 +5040,15 @@
       <c r="F106" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="G106" s="24"/>
+      <c r="G106" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="H106" s="27" t="s">
         <v>13</v>
       </c>
       <c r="I106" s="30"/>
     </row>
-    <row r="107" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="107" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A107" s="14"/>
       <c r="B107" s="15" t="s">
         <v>241</v>
@@ -5067,13 +5065,15 @@
       <c r="F107" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="G107" s="24"/>
+      <c r="G107" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="H107" s="27" t="s">
         <v>13</v>
       </c>
       <c r="I107" s="30"/>
     </row>
-    <row r="108" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="108" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A108" s="14"/>
       <c r="B108" s="15" t="s">
         <v>243</v>
@@ -5090,13 +5090,15 @@
       <c r="F108" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="G108" s="24"/>
+      <c r="G108" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="H108" s="27" t="s">
         <v>13</v>
       </c>
       <c r="I108" s="30"/>
     </row>
-    <row r="109" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="109" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A109" s="14"/>
       <c r="B109" s="15" t="s">
         <v>245</v>
@@ -5113,13 +5115,15 @@
       <c r="F109" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="G109" s="24"/>
+      <c r="G109" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="H109" s="27" t="s">
         <v>13</v>
       </c>
       <c r="I109" s="30"/>
     </row>
-    <row r="110" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="110" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A110" s="14"/>
       <c r="B110" s="15" t="s">
         <v>247</v>
@@ -5136,13 +5140,15 @@
       <c r="F110" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="G110" s="24"/>
+      <c r="G110" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="H110" s="27" t="s">
         <v>13</v>
       </c>
       <c r="I110" s="30"/>
     </row>
-    <row r="111" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="111" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A111" s="31" t="s">
         <v>249</v>
       </c>
@@ -5169,7 +5175,7 @@
       </c>
       <c r="I111" s="30"/>
     </row>
-    <row r="112" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="112" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A112" s="32"/>
       <c r="B112" s="15" t="s">
         <v>252</v>
@@ -5194,7 +5200,7 @@
       </c>
       <c r="I112" s="30"/>
     </row>
-    <row r="113" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="113" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A113" s="32"/>
       <c r="B113" s="15" t="s">
         <v>254</v>
@@ -5219,7 +5225,7 @@
       </c>
       <c r="I113" s="30"/>
     </row>
-    <row r="114" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="114" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A114" s="32"/>
       <c r="B114" s="15" t="s">
         <v>256</v>
@@ -5244,7 +5250,7 @@
       </c>
       <c r="I114" s="30"/>
     </row>
-    <row r="115" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="115" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A115" s="32"/>
       <c r="B115" s="15" t="s">
         <v>258</v>
@@ -5269,7 +5275,7 @@
       </c>
       <c r="I115" s="30"/>
     </row>
-    <row r="116" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="116" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A116" s="32"/>
       <c r="B116" s="15" t="s">
         <v>260</v>
@@ -5294,7 +5300,7 @@
       </c>
       <c r="I116" s="30"/>
     </row>
-    <row r="117" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="117" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A117" s="32"/>
       <c r="B117" s="15" t="s">
         <v>262</v>
@@ -5319,7 +5325,7 @@
       </c>
       <c r="I117" s="30"/>
     </row>
-    <row r="118" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="118" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A118" s="32"/>
       <c r="B118" s="15" t="s">
         <v>264</v>
@@ -5344,7 +5350,7 @@
       </c>
       <c r="I118" s="30"/>
     </row>
-    <row r="119" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="119" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A119" s="32"/>
       <c r="B119" s="15" t="s">
         <v>266</v>
@@ -5369,7 +5375,7 @@
       </c>
       <c r="I119" s="30"/>
     </row>
-    <row r="120" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="120" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A120" s="32"/>
       <c r="B120" s="15" t="s">
         <v>268</v>
@@ -5394,7 +5400,7 @@
       </c>
       <c r="I120" s="30"/>
     </row>
-    <row r="121" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="121" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A121" s="32"/>
       <c r="B121" s="15" t="s">
         <v>270</v>
@@ -5419,7 +5425,7 @@
       </c>
       <c r="I121" s="30"/>
     </row>
-    <row r="122" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="122" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A122" s="33"/>
       <c r="B122" s="34" t="s">
         <v>272</v>
@@ -5466,7 +5472,7 @@
     <mergeCell ref="A105:A110"/>
     <mergeCell ref="A111:A122"/>
   </mergeCells>
-  <conditionalFormatting sqref="G2:G122">
+  <conditionalFormatting sqref="G2:G111 G112:G122">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
@@ -5475,7 +5481,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G122">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G103 G104:G111 G112:G122">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="PLS Select 请选择" sqref="F2:F122">
